--- a/data/evaluation/evaluation_North_Winter_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Cucumbers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>784.6508644377926</v>
+        <v>781.6195223137329</v>
       </c>
       <c r="C4" t="n">
-        <v>1316817.922279578</v>
+        <v>1288881.033575878</v>
       </c>
       <c r="D4" t="n">
-        <v>1147.526872138329</v>
+        <v>1135.288964790849</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05464086764457043</v>
+        <v>0.07469708985934742</v>
       </c>
     </row>
     <row r="5">
